--- a/data/trans_camb/P25_N_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 6,01</t>
+          <t>-11,04; 17,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 13,62</t>
+          <t>-11,62; 16,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 16,48</t>
+          <t>-20,08; 14,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 5,42</t>
+          <t>-16,64; 2,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -1,16</t>
+          <t>-10,4; 7,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 7,63</t>
+          <t>-3,04; 16,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 5,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 7,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; 13,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 14,62</t>
+          <t>-20,48; 45,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 33,33</t>
+          <t>-20,73; 40,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 40,57</t>
+          <t>-36,5; 34,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 9,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 7,87</t>
+          <t>-21,49; 3,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,93; -2,17</t>
+          <t>-13,45; 10,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 13,59</t>
+          <t>-3,79; 24,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 14,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; 9,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 14,06</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 24,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,7</t>
+          <t>-8,11; 6,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 8,65</t>
+          <t>-5,64; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 15,47</t>
+          <t>1,2; 16,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -0,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 3,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 11,52</t>
+          <t>-12,68; 0,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -0,02</t>
+          <t>-11,44; 1,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,7</t>
+          <t>-5,08; 9,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 10,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 1,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 1,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 10,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>-9,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,27%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 21,77</t>
+          <t>-25,73; 27,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 38,32</t>
+          <t>-18,24; 31,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 70,24</t>
+          <t>2,79; 70,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; -2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 25,45</t>
+          <t>-23,2; 1,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -0,06</t>
+          <t>-20,61; 3,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 13,54</t>
+          <t>-9,22; 20,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 30,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 3,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; 4,36</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 27,84</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,93</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 3,43</t>
+          <t>-14,04; 2,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,42</t>
+          <t>-10,87; 4,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 8,06</t>
+          <t>-7,64; 10,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 4,56</t>
+          <t>-9,03; 4,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,04</t>
+          <t>-9,17; 3,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,51</t>
+          <t>-3,5; 11,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 3,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 1,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 2,11</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 8,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,23%</t>
+          <t>-16,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 13,47</t>
+          <t>-37,5; 7,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 26,1</t>
+          <t>-30,25; 15,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 30,75</t>
+          <t>-21,15; 38,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 12,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 14,26</t>
+          <t>-22,15; 14,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 6,88</t>
+          <t>-22,44; 11,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 15,62</t>
+          <t>-8,53; 36,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 11,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,18; 6,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; 6,85</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 27,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 1,97</t>
+          <t>-11,03; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,05</t>
+          <t>4,36; 18,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,76</t>
+          <t>-13,51; 0,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,77</t>
+          <t>0,3; 14,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; -1,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 14,91</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>-13,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-16,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 7,23</t>
+          <t>-36,78; 7,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 23,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,73; 43,27</t>
+          <t>13,44; 73,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,23; -2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 18,64</t>
+          <t>-27,3; 1,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 9,71</t>
+          <t>0,56; 33,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 22,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; -3,45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 42,27</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,25</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 2,48</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 6,88</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 11,55</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; -0,17</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 2,71</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 10,42</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; -0,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 3,98</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 10,2</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,29%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-15,9; 8,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 24,29</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 41,59</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-15,59; -0,37</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 5,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 22,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-13,99; -0,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 10,39</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 26,76</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
